--- a/Test/MultiPSO/Explore150Exploit200/ALLCONError_75.xlsx
+++ b/Test/MultiPSO/Explore150Exploit200/ALLCONError_75.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.01129977979338481</v>
+        <v>0.009849632320227508</v>
       </c>
       <c r="B1" t="n">
-        <v>0.006074973909934725</v>
+        <v>0.002956618190761505</v>
       </c>
       <c r="C1" t="n">
-        <v>0.00455714644475964</v>
+        <v>0.003561112270598449</v>
       </c>
       <c r="D1" t="n">
-        <v>0.00354746248718205</v>
+        <v>0.00212079228527806</v>
       </c>
       <c r="E1" t="n">
-        <v>0.005503082875103983</v>
+        <v>0.006419732435137045</v>
       </c>
       <c r="F1" t="n">
-        <v>0.009623960611147394</v>
+        <v>0.004650661594962178</v>
       </c>
       <c r="G1" t="n">
-        <v>0.01166574955622125</v>
+        <v>0.003863376933396691</v>
       </c>
       <c r="H1" t="n">
-        <v>0.003604908517829539</v>
+        <v>0.003215081834187772</v>
       </c>
       <c r="I1" t="n">
-        <v>0.0105445636816514</v>
+        <v>0.009279023879860168</v>
       </c>
       <c r="J1" t="n">
-        <v>0.0129612769433098</v>
+        <v>0.01436175216432667</v>
       </c>
     </row>
   </sheetData>
